--- a/training_logs/NSC_NSCB_Weak_Compound.xlsx
+++ b/training_logs/NSC_NSCB_Weak_Compound.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\samba.scp.astrazeneca.net\img\GAN_CP\PAPER_2\BBBC021\Dino_weak_compound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\samba.scp.astrazeneca.net\img\GAN_CP\PAPER_2\BBBC021\training_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50D58FD-F6BC-4230-AD2B-2319347410FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2F41DC-873E-4EF3-B62A-79C7535E38C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="570" windowWidth="15630" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="10420" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1922,7 +1922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1947,12 +1949,12 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="16"/>
       <c r="L1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="13"/>
